--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lamc2</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H2">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I2">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J2">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>204.7996008523667</v>
+        <v>254.8768080394063</v>
       </c>
       <c r="R2">
-        <v>1843.1964076713</v>
+        <v>2293.891272354656</v>
       </c>
       <c r="S2">
-        <v>0.06176619358585584</v>
+        <v>0.07678994002374545</v>
       </c>
       <c r="T2">
-        <v>0.06176619358585584</v>
+        <v>0.07678994002374544</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H3">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I3">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J3">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>215.866365784575</v>
+        <v>275.772233759087</v>
       </c>
       <c r="R3">
-        <v>1942.797292061175</v>
+        <v>2481.950103831783</v>
       </c>
       <c r="S3">
-        <v>0.06510385607312158</v>
+        <v>0.08308536760747771</v>
       </c>
       <c r="T3">
-        <v>0.06510385607312158</v>
+        <v>0.0830853676074777</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H4">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I4">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J4">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>139.4689063768917</v>
+        <v>118.8817943628135</v>
       </c>
       <c r="R4">
-        <v>1255.220157392025</v>
+        <v>1069.936149265321</v>
       </c>
       <c r="S4">
-        <v>0.0420628918934885</v>
+        <v>0.03581701265508735</v>
       </c>
       <c r="T4">
-        <v>0.04206289189348851</v>
+        <v>0.03581701265508735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H5">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I5">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J5">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>74.72619517091665</v>
+        <v>93.35459544990657</v>
       </c>
       <c r="R5">
-        <v>672.5357565382499</v>
+        <v>840.1913590491591</v>
       </c>
       <c r="S5">
-        <v>0.02253692203330262</v>
+        <v>0.02812611253524094</v>
       </c>
       <c r="T5">
-        <v>0.02253692203330262</v>
+        <v>0.02812611253524094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.250975</v>
+        <v>1.598137666666667</v>
       </c>
       <c r="H6">
-        <v>3.752925</v>
+        <v>4.794413</v>
       </c>
       <c r="I6">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591189</v>
       </c>
       <c r="J6">
-        <v>0.2242778682025356</v>
+        <v>0.2574006098591188</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>108.7822619494417</v>
+        <v>111.4640548970694</v>
       </c>
       <c r="R6">
-        <v>979.0403575449749</v>
+        <v>1003.176494073624</v>
       </c>
       <c r="S6">
-        <v>0.03280800461676706</v>
+        <v>0.03358217703756741</v>
       </c>
       <c r="T6">
-        <v>0.03280800461676705</v>
+        <v>0.03358217703756741</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>11.725855</v>
       </c>
       <c r="I7">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J7">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>639.8876672602645</v>
+        <v>623.3606687477512</v>
       </c>
       <c r="R7">
-        <v>5758.98900534238</v>
+        <v>5610.246018729761</v>
       </c>
       <c r="S7">
-        <v>0.192985852339089</v>
+        <v>0.1878077049634931</v>
       </c>
       <c r="T7">
-        <v>0.192985852339089</v>
+        <v>0.187807704963493</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>11.725855</v>
       </c>
       <c r="I8">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J8">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>674.465304946645</v>
@@ -948,10 +948,10 @@
         <v>6070.187744519805</v>
       </c>
       <c r="S8">
-        <v>0.2034142372294392</v>
+        <v>0.2032046411493921</v>
       </c>
       <c r="T8">
-        <v>0.2034142372294392</v>
+        <v>0.2032046411493921</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>11.725855</v>
       </c>
       <c r="I9">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J9">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>435.7646830629461</v>
+        <v>290.7531501433372</v>
       </c>
       <c r="R9">
-        <v>3921.882147566515</v>
+        <v>2616.778351290035</v>
       </c>
       <c r="S9">
-        <v>0.1314237218233036</v>
+        <v>0.08759885661221077</v>
       </c>
       <c r="T9">
-        <v>0.1314237218233036</v>
+        <v>0.08759885661221077</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>11.725855</v>
       </c>
       <c r="I10">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J10">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>233.4788276546611</v>
+        <v>228.3204325178628</v>
       </c>
       <c r="R10">
-        <v>2101.30944889195</v>
+        <v>2054.883892660765</v>
       </c>
       <c r="S10">
-        <v>0.0704156570964812</v>
+        <v>0.06878896692919816</v>
       </c>
       <c r="T10">
-        <v>0.07041565709648122</v>
+        <v>0.06878896692919814</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>11.725855</v>
       </c>
       <c r="I11">
-        <v>0.7007466875176145</v>
+        <v>0.6295332146228534</v>
       </c>
       <c r="J11">
-        <v>0.7007466875176146</v>
+        <v>0.6295332146228533</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>339.8855639777428</v>
+        <v>272.6113385382267</v>
       </c>
       <c r="R11">
-        <v>3058.970075799685</v>
+        <v>2453.50204684404</v>
       </c>
       <c r="S11">
-        <v>0.1025072190293014</v>
+        <v>0.08213304496855922</v>
       </c>
       <c r="T11">
-        <v>0.1025072190293014</v>
+        <v>0.08213304496855924</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H12">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I12">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J12">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>1.350623879</v>
+        <v>24.31014399993245</v>
       </c>
       <c r="R12">
-        <v>12.155614911</v>
+        <v>218.791295999392</v>
       </c>
       <c r="S12">
-        <v>0.0004073391531272094</v>
+        <v>0.007324222686572596</v>
       </c>
       <c r="T12">
-        <v>0.0004073391531272094</v>
+        <v>0.007324222686572593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H13">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I13">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J13">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>1.42360760025</v>
+        <v>26.303149217209</v>
       </c>
       <c r="R13">
-        <v>12.81246840225</v>
+        <v>236.728342954881</v>
       </c>
       <c r="S13">
-        <v>0.0004293505566484168</v>
+        <v>0.007924680422523277</v>
       </c>
       <c r="T13">
-        <v>0.0004293505566484167</v>
+        <v>0.007924680422523273</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H14">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I14">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J14">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>0.91977735575</v>
+        <v>11.33894277067189</v>
       </c>
       <c r="R14">
-        <v>8.27799620175</v>
+        <v>102.050484936047</v>
       </c>
       <c r="S14">
-        <v>0.000277398715498935</v>
+        <v>0.003416225830786282</v>
       </c>
       <c r="T14">
-        <v>0.000277398715498935</v>
+        <v>0.003416225830786281</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H15">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I15">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J15">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>0.4928084975</v>
+        <v>8.904159134368111</v>
       </c>
       <c r="R15">
-        <v>4.4352764775</v>
+        <v>80.137432209313</v>
       </c>
       <c r="S15">
-        <v>0.0001486277557702965</v>
+        <v>0.00268266795692254</v>
       </c>
       <c r="T15">
-        <v>0.0001486277557702965</v>
+        <v>0.00268266795692254</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.00825</v>
+        <v>0.1524303333333333</v>
       </c>
       <c r="H16">
-        <v>0.02475</v>
+        <v>0.457291</v>
       </c>
       <c r="I16">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857089</v>
       </c>
       <c r="J16">
-        <v>0.001479080247543651</v>
+        <v>0.02455086415857088</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>0.71740335425</v>
+        <v>10.63143895361867</v>
       </c>
       <c r="R16">
-        <v>6.45663018825</v>
+        <v>95.68295058256801</v>
       </c>
       <c r="S16">
-        <v>0.0002163640664987935</v>
+        <v>0.003203067261766192</v>
       </c>
       <c r="T16">
-        <v>0.0002163640664987935</v>
+        <v>0.003203067261766192</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H17">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I17">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J17">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>67.11329182210578</v>
+        <v>87.46422903119645</v>
       </c>
       <c r="R17">
-        <v>604.019626398952</v>
+        <v>787.178061280768</v>
       </c>
       <c r="S17">
-        <v>0.02024092116203125</v>
+        <v>0.02635144779626359</v>
       </c>
       <c r="T17">
-        <v>0.02024092116203125</v>
+        <v>0.02635144779626359</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H18">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I18">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J18">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>70.739895689158</v>
+        <v>94.63476100273598</v>
       </c>
       <c r="R18">
-        <v>636.659061202422</v>
+        <v>851.712849024624</v>
       </c>
       <c r="S18">
-        <v>0.02133468069856978</v>
+        <v>0.02851180410435004</v>
       </c>
       <c r="T18">
-        <v>0.02133468069856978</v>
+        <v>0.02851180410435004</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H19">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I19">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J19">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>45.70427566667845</v>
+        <v>40.79580472532088</v>
       </c>
       <c r="R19">
-        <v>411.338481000106</v>
+        <v>367.162242527888</v>
       </c>
       <c r="S19">
-        <v>0.01378410468956126</v>
+        <v>0.01229106493515674</v>
       </c>
       <c r="T19">
-        <v>0.01378410468956126</v>
+        <v>0.01229106493515674</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H20">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I20">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J20">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>24.48794295686444</v>
+        <v>32.03582067883911</v>
       </c>
       <c r="R20">
-        <v>220.39148661178</v>
+        <v>288.322386109552</v>
       </c>
       <c r="S20">
-        <v>0.007385400259072848</v>
+        <v>0.00965183441939204</v>
       </c>
       <c r="T20">
-        <v>0.007385400259072849</v>
+        <v>0.00965183441939204</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4099473333333334</v>
+        <v>0.5484213333333333</v>
       </c>
       <c r="H21">
-        <v>1.229842</v>
+        <v>1.645264</v>
       </c>
       <c r="I21">
-        <v>0.07349636403230622</v>
+        <v>0.0883303038305739</v>
       </c>
       <c r="J21">
-        <v>0.07349636403230624</v>
+        <v>0.08833030383057389</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>35.64819296959712</v>
+        <v>38.25031277367466</v>
       </c>
       <c r="R21">
-        <v>320.833736726374</v>
+        <v>344.252814963072</v>
       </c>
       <c r="S21">
-        <v>0.01075125722307108</v>
+        <v>0.01152415257541148</v>
       </c>
       <c r="T21">
-        <v>0.01075125722307108</v>
+        <v>0.01152415257541148</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.003446</v>
+      </c>
+      <c r="I22">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J22">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>159.4836373333333</v>
+      </c>
+      <c r="N22">
+        <v>478.450912</v>
+      </c>
+      <c r="O22">
+        <v>0.2983285084902258</v>
+      </c>
+      <c r="P22">
+        <v>0.2983285084902258</v>
+      </c>
+      <c r="Q22">
+        <v>0.1831935380835555</v>
+      </c>
+      <c r="R22">
+        <v>1.648741842752</v>
+      </c>
+      <c r="S22">
+        <v>5.519302015112731E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.519302015112731E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.003446</v>
+      </c>
+      <c r="I23">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J23">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>172.558497</v>
+      </c>
+      <c r="N23">
+        <v>517.675491</v>
+      </c>
+      <c r="O23">
+        <v>0.3227862111630279</v>
+      </c>
+      <c r="P23">
+        <v>0.3227862111630279</v>
+      </c>
+      <c r="Q23">
+        <v>0.198212193554</v>
+      </c>
+      <c r="R23">
+        <v>1.783909741986</v>
+      </c>
+      <c r="S23">
+        <v>5.971787928477753E-05</v>
+      </c>
+      <c r="T23">
+        <v>5.971787928477753E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.003446</v>
+      </c>
+      <c r="I24">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J24">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.38770566666666</v>
+      </c>
+      <c r="N24">
+        <v>223.163117</v>
+      </c>
+      <c r="O24">
+        <v>0.1391489036280481</v>
+      </c>
+      <c r="P24">
+        <v>0.1391489036280482</v>
+      </c>
+      <c r="Q24">
+        <v>0.08544667790911109</v>
+      </c>
+      <c r="R24">
+        <v>0.7690201011819999</v>
+      </c>
+      <c r="S24">
+        <v>2.574359480700369E-05</v>
+      </c>
+      <c r="T24">
+        <v>2.574359480700369E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.003446</v>
+      </c>
+      <c r="I25">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J25">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>58.41461433333333</v>
+      </c>
+      <c r="N25">
+        <v>175.243843</v>
+      </c>
+      <c r="O25">
+        <v>0.1092697975759847</v>
+      </c>
+      <c r="P25">
+        <v>0.1092697975759848</v>
+      </c>
+      <c r="Q25">
+        <v>0.06709892033088888</v>
+      </c>
+      <c r="R25">
+        <v>0.603890282978</v>
+      </c>
+      <c r="S25">
+        <v>2.02157352310784E-05</v>
+      </c>
+      <c r="T25">
+        <v>2.02157352310784E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.001148666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.003446</v>
+      </c>
+      <c r="I26">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="J26">
+        <v>0.0001850075288829985</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>69.746216</v>
+      </c>
+      <c r="N26">
+        <v>209.238648</v>
+      </c>
+      <c r="O26">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="P26">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="Q26">
+        <v>0.08011515344533333</v>
+      </c>
+      <c r="R26">
+        <v>0.721036381008</v>
+      </c>
+      <c r="S26">
+        <v>2.413729940901154E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.413729940901155E-05</v>
       </c>
     </row>
   </sheetData>
